--- a/SOURCE/duan2019/config/temp/Survey_CC.xlsx
+++ b/SOURCE/duan2019/config/temp/Survey_CC.xlsx
@@ -206,7 +206,7 @@
     <t>${data.positionType}</t>
   </si>
   <si>
-    <t>KẾT QUẢ ĐÀO TẠO, BỒI DƯỠNG CÔNG CHỨC Ở TRONG NƯỚC NĂM 2019</t>
+    <t>KẾ HOẠCH ĐÀO TẠO, BỒI DƯỠNG CÔNG CHỨC Ở TRONG NƯỚC NĂM 2019</t>
   </si>
 </sst>
 </file>
@@ -573,53 +573,53 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1305,31 +1305,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="16.8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="16.8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="16.8">
@@ -1338,68 +1338,68 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="17.399999999999999">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
     </row>
     <row r="6" spans="1:28" ht="16.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
     </row>
     <row r="7" spans="1:28" ht="6" customHeight="1">
       <c r="A7" s="4"/>
@@ -1432,81 +1432,81 @@
       <c r="AB7" s="19"/>
     </row>
     <row r="8" spans="1:28" ht="15.6">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="Q8" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39" t="s">
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40" t="s">
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="X9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="40" t="s">
+      <c r="Z9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="39" t="s">
+      <c r="AA9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="39"/>
+      <c r="AB9" s="42"/>
     </row>
     <row r="10" spans="1:28" ht="51.75" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1564,10 +1564,10 @@
       <c r="V10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1663,11 +1663,11 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="21" customFormat="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="36">
         <f ca="1">SUM(D11:INDIRECT("D"&amp;ROW()-1))</f>
         <v>0</v>
@@ -1847,9 +1847,9 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
@@ -1866,9 +1866,9 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -1895,9 +1895,9 @@
       <c r="C17" s="17"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="N17" s="23"/>
@@ -1938,18 +1938,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A5:AB5"/>
     <mergeCell ref="A6:AB6"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="D9:G9"/>
@@ -1961,6 +1949,18 @@
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A5:AB5"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.28740157500000002" right="0.143700787" top="0.393700787" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
